--- a/src/main/java/com/qa/hubspot/testdata/testdata.xlsx
+++ b/src/main/java/com/qa/hubspot/testdata/testdata.xlsx
@@ -47,7 +47,7 @@
     <t>QA Engineer</t>
   </si>
   <si>
-    <t>tom2@gmail.com</t>
+    <t>tom4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
